--- a/src/Api/Content/AddEmployees.xlsx
+++ b/src/Api/Content/AddEmployees.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Prog-Projects\IProgram\src\Api\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05142B0-1B34-4889-89FA-FE1317BAA2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA789B97-2A83-4415-8864-853C3B67D943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>رقم الموظف بجهته الأصلية</t>
   </si>
@@ -58,6 +60,12 @@
   </si>
   <si>
     <t>كود القسم</t>
+  </si>
+  <si>
+    <t>الكود</t>
+  </si>
+  <si>
+    <t>اسم القسم</t>
   </si>
 </sst>
 </file>
@@ -118,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -130,6 +138,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,7 +424,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -451,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -464,6 +475,66 @@
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8C415A15-AF51-4AB6-B29C-DD3A85C2D025}">
+          <x14:formula1>
+            <xm:f>Sheet2!$B$2:$B$400</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F308BE0-E2B9-4AA3-B943-124106509D1D}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/Api/Content/AddEmployees.xlsx
+++ b/src/Api/Content/AddEmployees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Prog-Projects\IProgram\src\Api\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA789B97-2A83-4415-8864-853C3B67D943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED1552B-5BE2-4202-BC25-A74CB71BE2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>الكود</t>
   </si>
   <si>
-    <t>اسم القسم</t>
+    <t>أسم القسم</t>
   </si>
 </sst>
 </file>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F308BE0-E2B9-4AA3-B943-124106509D1D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
